--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au725642_uni_au_dk/Documents/Personalized NSPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{1D857FFA-FF59-40DC-909C-ABC2771FD73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59AB534B-49CC-40C3-8678-3263B700A9C0}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{1D857FFA-FF59-40DC-909C-ABC2771FD73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C4A4E75-9AC5-49CD-9581-7FCC249CEFD5}"/>
   <bookViews>
-    <workbookView xWindow="-24945" yWindow="3030" windowWidth="21600" windowHeight="12645" xr2:uid="{7113C037-D458-4FAD-8795-260F8A031ED1}"/>
+    <workbookView xWindow="-26115" yWindow="2685" windowWidth="21600" windowHeight="12645" xr2:uid="{7113C037-D458-4FAD-8795-260F8A031ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="684">
   <si>
     <t>Study</t>
   </si>
@@ -2089,6 +2089,9 @@
   </si>
   <si>
     <t>Smoke</t>
+  </si>
+  <si>
+    <t>Seinost 2020</t>
   </si>
 </sst>
 </file>
@@ -2566,9 +2569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1C0A62-7AA9-469C-AD1E-F9D3A166FD5C}">
   <dimension ref="A1:AF89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X3" sqref="X3"/>
+      <selection pane="topRight" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8978,7 +8981,7 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>37</v>
+        <v>683</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>679</v>
@@ -9073,7 +9076,7 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>37</v>
+        <v>683</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>679</v>
@@ -10135,7 +10138,7 @@
         <v>2</v>
       </c>
       <c r="F80" s="6">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>3</v>
@@ -10231,7 +10234,7 @@
         <v>4</v>
       </c>
       <c r="F81" s="6">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>3</v>
@@ -11083,10 +11086,17 @@
   <dimension ref="A1:AE89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AE89"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -12418,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -12513,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -12608,7 +12618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12703,7 +12713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -12798,7 +12808,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -12893,7 +12903,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -12988,7 +12998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -13083,7 +13093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -13178,7 +13188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -13273,7 +13283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -13368,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -13653,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -13748,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -13843,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -13938,7 +13948,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
@@ -14033,7 +14043,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -14128,7 +14138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
@@ -14223,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
@@ -14318,7 +14328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -14413,7 +14423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -14508,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
@@ -14603,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
@@ -14698,7 +14708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -14793,7 +14803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -14888,7 +14898,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
@@ -14983,7 +14993,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
@@ -15078,7 +15088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
@@ -15173,7 +15183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>25</v>
       </c>
@@ -15268,7 +15278,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
@@ -15363,7 +15373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>26</v>
       </c>
@@ -15458,7 +15468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>26</v>
       </c>
@@ -15553,7 +15563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
@@ -15648,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
@@ -15743,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>28</v>
       </c>
@@ -15838,7 +15848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>28</v>
       </c>
@@ -15933,7 +15943,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>29</v>
       </c>
@@ -16028,7 +16038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
@@ -16123,7 +16133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>30</v>
       </c>
@@ -16218,7 +16228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>30</v>
       </c>
@@ -16313,7 +16323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>31</v>
       </c>
@@ -16408,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>31</v>
       </c>
@@ -16503,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>32</v>
       </c>
@@ -16598,7 +16608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>32</v>
       </c>
@@ -16693,7 +16703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>33</v>
       </c>
@@ -16788,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>33</v>
       </c>
@@ -16883,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>34</v>
       </c>
@@ -16978,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>34</v>
       </c>
@@ -17073,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>35</v>
       </c>
@@ -17168,7 +17178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>35</v>
       </c>
@@ -17263,7 +17273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>36</v>
       </c>
@@ -17358,7 +17368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>36</v>
       </c>
@@ -17453,7 +17463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>37</v>
       </c>
@@ -17548,7 +17558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>37</v>
       </c>
@@ -17643,7 +17653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>38</v>
       </c>
@@ -17738,7 +17748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>38</v>
       </c>
@@ -17833,7 +17843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>39</v>
       </c>
@@ -17928,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>39</v>
       </c>
@@ -18023,7 +18033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>40</v>
       </c>
@@ -18118,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>40</v>
       </c>
@@ -18213,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>41</v>
       </c>
@@ -18308,7 +18318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>41</v>
       </c>
@@ -18403,7 +18413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>42</v>
       </c>
@@ -18498,7 +18508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>42</v>
       </c>
@@ -18593,7 +18603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>43</v>
       </c>
@@ -18688,7 +18698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>43</v>
       </c>
@@ -18783,7 +18793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>44</v>
       </c>
@@ -18878,7 +18888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>44</v>
       </c>
@@ -19163,7 +19173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>46</v>
       </c>
@@ -19258,7 +19268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>46</v>
       </c>
@@ -19353,7 +19363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>47</v>
       </c>
@@ -19448,7 +19458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>47</v>
       </c>
